--- a/pH_ctrl=7, TS1/pH_levels_over_time.xlsx
+++ b/pH_ctrl=7, TS1/pH_levels_over_time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1734 +450,1928 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.874056481742811</v>
+        <v>5.874055888526946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.207318094113775e-07</v>
+        <v>1.130230917824337e-07</v>
       </c>
       <c r="B3" t="n">
-        <v>5.874058006196664</v>
+        <v>5.874057556929547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.414636188227549e-07</v>
+        <v>2.260461835648675e-07</v>
       </c>
       <c r="B4" t="n">
-        <v>5.874059533342501</v>
+        <v>5.874059227859759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.44878171293653e-06</v>
+        <v>1.356277101389205e-06</v>
       </c>
       <c r="B5" t="n">
-        <v>5.874074812523546</v>
+        <v>5.874075950096133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.656099807050304e-06</v>
+        <v>2.486508019213542e-06</v>
       </c>
       <c r="B6" t="n">
-        <v>5.874090085258818</v>
+        <v>5.874092671609331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.173282970640397e-06</v>
+        <v>8.42466104220685e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>5.874171894022514</v>
+        <v>5.874180016107529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.569046613423049e-05</v>
+        <v>1.436281406520016e-05</v>
       </c>
       <c r="B8" t="n">
-        <v>5.874252915478652</v>
+        <v>5.874266720140106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.255317159980405e-05</v>
+        <v>3.04465961767347e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>5.874457446307328</v>
+        <v>5.87449693269155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.941587706537761e-05</v>
+        <v>4.653037828826924e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>5.874656550826034</v>
+        <v>5.874722218465004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0001078057701572748</v>
+        <v>0.0001031450995168645</v>
       </c>
       <c r="B11" t="n">
-        <v>5.875308600076631</v>
+        <v>5.875480174136097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.000166195663249172</v>
+        <v>0.0001597598207454599</v>
       </c>
       <c r="B12" t="n">
-        <v>5.875900603188261</v>
+        <v>5.876181505388349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0002245855563410691</v>
+        <v>0.0002163745419740552</v>
       </c>
       <c r="B13" t="n">
-        <v>5.876435244285473</v>
+        <v>5.876828617811319</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.000382782090847469</v>
+        <v>0.0003688725183951238</v>
       </c>
       <c r="B14" t="n">
-        <v>5.877632572924386</v>
+        <v>5.878335487125688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0005409786253538689</v>
+        <v>0.0005213704948161925</v>
       </c>
       <c r="B15" t="n">
-        <v>5.878501333426738</v>
+        <v>5.879532625647782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0006991751598602687</v>
+        <v>0.0006738684712372612</v>
       </c>
       <c r="B16" t="n">
-        <v>5.879098065623529</v>
+        <v>5.880471452003093</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.001277097536495013</v>
+        <v>0.001245610891251206</v>
       </c>
       <c r="B17" t="n">
-        <v>5.879583446915035</v>
+        <v>5.882293755026835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.001475858889783347</v>
+        <v>0.001444546495454338</v>
       </c>
       <c r="B18" t="n">
-        <v>5.879407946937187</v>
+        <v>5.882569978409795</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.001674620243071681</v>
+        <v>0.001643482099657471</v>
       </c>
       <c r="B19" t="n">
-        <v>5.87913037648716</v>
+        <v>5.882732930856933</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.001873381596360015</v>
+        <v>0.001842417703860603</v>
       </c>
       <c r="B20" t="n">
-        <v>5.878804593928137</v>
+        <v>5.882839971156095</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.002072142949648349</v>
+        <v>0.002041353308063736</v>
       </c>
       <c r="B21" t="n">
-        <v>5.87847304727606</v>
+        <v>5.882937327719148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.002341458740529832</v>
+        <v>0.002319332141622795</v>
       </c>
       <c r="B22" t="n">
-        <v>5.878046602896342</v>
+        <v>5.883102845797167</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.002610774531411315</v>
+        <v>0.002597310975181855</v>
       </c>
       <c r="B23" t="n">
-        <v>5.877661330233891</v>
+        <v>5.883313432689435</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.002880090322292798</v>
+        <v>0.002875289808740914</v>
       </c>
       <c r="B24" t="n">
-        <v>5.87731036370275</v>
+        <v>5.883555942649424</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.003149406113174282</v>
+        <v>0.003153268642299973</v>
       </c>
       <c r="B25" t="n">
-        <v>5.876991775562078</v>
+        <v>5.883827041560577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.003991517975773023</v>
+        <v>0.003431247475859033</v>
       </c>
       <c r="B26" t="n">
-        <v>5.876214411125688</v>
+        <v>5.884136537718056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.004833629838371765</v>
+        <v>0.003870205873383958</v>
       </c>
       <c r="B27" t="n">
-        <v>5.875745907319713</v>
+        <v>5.88470559277868</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.005675741700970507</v>
+        <v>0.004309164270908883</v>
       </c>
       <c r="B28" t="n">
-        <v>5.875542077930532</v>
+        <v>5.885368671370375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.006517853563569249</v>
+        <v>0.004748122668433808</v>
       </c>
       <c r="B29" t="n">
-        <v>5.875540752212067</v>
+        <v>5.886113617639635</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.00814100753697496</v>
+        <v>0.005187081065958733</v>
       </c>
       <c r="B30" t="n">
-        <v>5.875888436450013</v>
+        <v>5.886931648910614</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.00976416151038067</v>
+        <v>0.006560174787267604</v>
       </c>
       <c r="B31" t="n">
-        <v>5.876560497787878</v>
+        <v>5.889847880785129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.01138731548378638</v>
+        <v>0.007933268508576475</v>
       </c>
       <c r="B32" t="n">
-        <v>5.877394629814172</v>
+        <v>5.893201326526854</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.01358260276940209</v>
+        <v>0.009306362229885345</v>
       </c>
       <c r="B33" t="n">
-        <v>5.878625851558182</v>
+        <v>5.896839375356754</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.0157778900550178</v>
+        <v>0.01138159929561494</v>
       </c>
       <c r="B34" t="n">
-        <v>5.879836947825962</v>
+        <v>5.902665046995746</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.01797317734063351</v>
+        <v>0.01345683636134454</v>
       </c>
       <c r="B35" t="n">
-        <v>5.880951640959704</v>
+        <v>5.908661949164688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.02016846462624923</v>
+        <v>0.01553207342707414</v>
       </c>
       <c r="B36" t="n">
-        <v>5.881929737425724</v>
+        <v>5.914708095565944</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.02369072787164363</v>
+        <v>0.01760731049280374</v>
       </c>
       <c r="B37" t="n">
-        <v>5.883150161699829</v>
+        <v>5.920749296414599</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.02721299111703803</v>
+        <v>0.02026056530632628</v>
       </c>
       <c r="B38" t="n">
-        <v>5.883865841597352</v>
+        <v>5.928410906160694</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.03073525436243243</v>
+        <v>0.02291382011984882</v>
       </c>
       <c r="B39" t="n">
-        <v>5.884024161675418</v>
+        <v>5.93596459212532</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.03425751760782683</v>
+        <v>0.02556707493337136</v>
       </c>
       <c r="B40" t="n">
-        <v>5.883587078994043</v>
+        <v>5.943374426096844</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.04073474858039793</v>
+        <v>0.03070595378344471</v>
       </c>
       <c r="B41" t="n">
-        <v>5.881105978521304</v>
+        <v>5.957206699081997</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.04721197955296903</v>
+        <v>0.03584483263351806</v>
       </c>
       <c r="B42" t="n">
-        <v>5.876256735356734</v>
+        <v>5.970249228424741</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.05111064260278712</v>
+        <v>0.04098371148359142</v>
       </c>
       <c r="B43" t="n">
-        <v>5.872118327253831</v>
+        <v>5.982384708680068</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.05500930565260521</v>
+        <v>0.04612259033366477</v>
       </c>
       <c r="B44" t="n">
-        <v>5.867039081433299</v>
+        <v>5.993511918389241</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.05890796870242331</v>
+        <v>0.04980976760837282</v>
       </c>
       <c r="B45" t="n">
-        <v>5.861056531226123</v>
+        <v>6.000810595350013</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0628066317522414</v>
+        <v>0.05349694488308086</v>
       </c>
       <c r="B46" t="n">
-        <v>5.854232511997812</v>
+        <v>6.007513466480662</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.06691876085447095</v>
+        <v>0.05611302702625826</v>
       </c>
       <c r="B47" t="n">
-        <v>5.846204913931452</v>
+        <v>6.011894006966859</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.0710308899567005</v>
+        <v>0.05872910916943566</v>
       </c>
       <c r="B48" t="n">
-        <v>5.837396022730685</v>
+        <v>6.015983956537951</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.07514301905893005</v>
+        <v>0.06134519131261306</v>
       </c>
       <c r="B49" t="n">
-        <v>5.827873844726198</v>
+        <v>6.019795365458736</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.0792551481611596</v>
+        <v>0.06489314398672859</v>
       </c>
       <c r="B50" t="n">
-        <v>5.817686700692934</v>
+        <v>6.024550596025368</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.08336727726338915</v>
+        <v>0.06844109666084411</v>
       </c>
       <c r="B51" t="n">
-        <v>5.806870773836232</v>
+        <v>6.028878364252348</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.08800571069454172</v>
+        <v>0.07198904933495963</v>
       </c>
       <c r="B52" t="n">
-        <v>5.793948346759218</v>
+        <v>6.032832307389818</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.09264414412569429</v>
+        <v>0.07553700200907515</v>
       </c>
       <c r="B53" t="n">
-        <v>5.780282618706496</v>
+        <v>6.03645872714155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.09728257755684686</v>
+        <v>0.08073497428131897</v>
       </c>
       <c r="B54" t="n">
-        <v>5.765885539199233</v>
+        <v>6.041253698302858</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1019210109879994</v>
+        <v>0.08593294655356279</v>
       </c>
       <c r="B55" t="n">
-        <v>5.750763187722486</v>
+        <v>6.045501864321443</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.106559444419152</v>
+        <v>0.09113091882580661</v>
       </c>
       <c r="B56" t="n">
-        <v>5.734918937151172</v>
+        <v>6.04924994519773</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1146011871728511</v>
+        <v>0.09632889109805043</v>
       </c>
       <c r="B57" t="n">
-        <v>5.705741300640664</v>
+        <v>6.052526994501522</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1226429299265502</v>
+        <v>0.1015268633702942</v>
       </c>
       <c r="B58" t="n">
-        <v>5.674403572159072</v>
+        <v>6.055352937361382</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1306846726802492</v>
+        <v>0.1091645911974459</v>
       </c>
       <c r="B59" t="n">
-        <v>5.640917421611094</v>
+        <v>6.058713280507897</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1387264154339483</v>
+        <v>0.1168023190245975</v>
       </c>
       <c r="B60" t="n">
-        <v>5.605313540358101</v>
+        <v>6.061145433923151</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1639274501717626</v>
+        <v>0.1244400468517492</v>
       </c>
       <c r="B61" t="n">
-        <v>5.481029007434837</v>
+        <v>6.062654635835677</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1891284849095768</v>
+        <v>0.1320777746789008</v>
       </c>
       <c r="B62" t="n">
-        <v>5.341909488239046</v>
+        <v>6.063244504442482</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.2143295196473911</v>
+        <v>0.1397155025060525</v>
       </c>
       <c r="B63" t="n">
-        <v>5.197888228354494</v>
+        <v>6.0629182635381</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.256053426440393</v>
+        <v>0.1552198099264298</v>
       </c>
       <c r="B64" t="n">
-        <v>4.974764409068116</v>
+        <v>6.059426000273445</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2977773332333949</v>
+        <v>0.1707241173468072</v>
       </c>
       <c r="B65" t="n">
-        <v>4.784264176373477</v>
+        <v>6.052131644832251</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.3302558903844761</v>
+        <v>0.1862284247671846</v>
       </c>
       <c r="B66" t="n">
-        <v>4.655965921707915</v>
+        <v>6.041002411131321</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.3627344475355573</v>
+        <v>0.2017327321875619</v>
       </c>
       <c r="B67" t="n">
-        <v>4.540900891168588</v>
+        <v>6.025980673618737</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3952130046866386</v>
+        <v>0.2327784536203631</v>
       </c>
       <c r="B68" t="n">
-        <v>4.435975186195821</v>
+        <v>5.98389098958619</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4276915618377198</v>
+        <v>0.2638241750531642</v>
       </c>
       <c r="B69" t="n">
-        <v>4.339016672814563</v>
+        <v>5.925119432844384</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4681634868376181</v>
+        <v>0.2948698964859654</v>
       </c>
       <c r="B70" t="n">
-        <v>4.227181410489524</v>
+        <v>5.848331310467686</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5086354118375165</v>
+        <v>0.3259156179187666</v>
       </c>
       <c r="B71" t="n">
-        <v>4.123693132678427</v>
+        <v>5.751379560891626</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5491073368374149</v>
+        <v>0.3652804362927087</v>
       </c>
       <c r="B72" t="n">
-        <v>4.027563713266611</v>
+        <v>5.594628151627469</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.5895792618373132</v>
+        <v>0.4046452546666508</v>
       </c>
       <c r="B73" t="n">
-        <v>3.938639452353504</v>
+        <v>5.39518354219192</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6249712213362713</v>
+        <v>0.4440100730405929</v>
       </c>
       <c r="B74" t="n">
-        <v>3.868413075452246</v>
+        <v>5.160594238171989</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.6338192112110108</v>
+        <v>0.483374891414535</v>
       </c>
       <c r="B75" t="n">
-        <v>3.852506551417474</v>
+        <v>4.919717883584234</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6426672010857504</v>
+        <v>0.5227397097884772</v>
       </c>
       <c r="B76" t="n">
-        <v>3.837994577028527</v>
+        <v>4.69833978088335</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6515151909604899</v>
+        <v>0.5688471947509536</v>
       </c>
       <c r="B77" t="n">
-        <v>3.825904932685152</v>
+        <v>4.47449513354062</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6580253092422154</v>
+        <v>0.6029979431728064</v>
       </c>
       <c r="B78" t="n">
-        <v>3.819375701413657</v>
+        <v>4.335139065850274</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.660809401764863</v>
+        <v>0.6115356302782696</v>
       </c>
       <c r="B79" t="n">
-        <v>3.817321997943029</v>
+        <v>4.304190648622062</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.6635934942875107</v>
+        <v>0.6200733173837328</v>
       </c>
       <c r="B80" t="n">
-        <v>3.815645095159606</v>
+        <v>4.275428776940462</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6663775868101584</v>
+        <v>0.628611004489196</v>
       </c>
       <c r="B81" t="n">
-        <v>3.814249246510368</v>
+        <v>4.249625200150136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6683331819466439</v>
+        <v>0.6371486915946593</v>
       </c>
       <c r="B82" t="n">
-        <v>3.813380097650132</v>
+        <v>4.228293728952188</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6702887770831295</v>
+        <v>0.6456863787001225</v>
       </c>
       <c r="B83" t="n">
-        <v>3.812580875156485</v>
+        <v>4.213999257973894</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.6722443722196151</v>
+        <v>0.6479655527523369</v>
       </c>
       <c r="B84" t="n">
-        <v>3.811831117614437</v>
+        <v>4.21177981937636</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6741999673561007</v>
+        <v>0.6502447268045514</v>
       </c>
       <c r="B85" t="n">
-        <v>3.811115354622244</v>
+        <v>4.210193190117181</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6761555624925862</v>
+        <v>0.6525239008567658</v>
       </c>
       <c r="B86" t="n">
-        <v>3.810422030468825</v>
+        <v>4.209148693414919</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.6787611831966748</v>
+        <v>0.6548030749089803</v>
       </c>
       <c r="B87" t="n">
-        <v>3.809520580213289</v>
+        <v>4.208536702656898</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.6813668039007633</v>
+        <v>0.6570822489611947</v>
       </c>
       <c r="B88" t="n">
-        <v>3.808635191262175</v>
+        <v>4.20824896509286</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6839724246048519</v>
+        <v>0.6593614230134092</v>
       </c>
       <c r="B89" t="n">
-        <v>3.807760386503882</v>
+        <v>4.208186867230831</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.6865780453089404</v>
+        <v>0.6620438817410712</v>
       </c>
       <c r="B90" t="n">
-        <v>3.806892320460954</v>
+        <v>4.208296316511034</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6891836660130289</v>
+        <v>0.6647263404687332</v>
       </c>
       <c r="B91" t="n">
-        <v>3.806028368652754</v>
+        <v>4.208522093919036</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.692649994024281</v>
+        <v>0.6665661439215902</v>
       </c>
       <c r="B92" t="n">
-        <v>3.804883166465737</v>
+        <v>4.208720276506416</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.696116322035533</v>
+        <v>0.6684059473744471</v>
       </c>
       <c r="B93" t="n">
-        <v>3.803741894476486</v>
+        <v>4.208939468190647</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.699582650046785</v>
+        <v>0.6702457508273041</v>
       </c>
       <c r="B94" t="n">
-        <v>3.802604291092627</v>
+        <v>4.209172327638196</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.703048978058037</v>
+        <v>0.672085554280161</v>
       </c>
       <c r="B95" t="n">
-        <v>3.801469936282846</v>
+        <v>4.209413849874533</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.706515306069289</v>
+        <v>0.673925357733018</v>
       </c>
       <c r="B96" t="n">
-        <v>3.800338411660524</v>
+        <v>4.209661390567979</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.7131845875785836</v>
+        <v>0.6757651611858749</v>
       </c>
       <c r="B97" t="n">
-        <v>3.798169152399872</v>
+        <v>4.209913227989528</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.7198538690878782</v>
+        <v>0.6777498535144452</v>
       </c>
       <c r="B98" t="n">
-        <v>3.796010417078926</v>
+        <v>4.210188113526823</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.7265231505971728</v>
+        <v>0.6797345458430154</v>
       </c>
       <c r="B99" t="n">
-        <v>3.793861667431302</v>
+        <v>4.210464977550719</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.7331924321064673</v>
+        <v>0.6817192381715856</v>
       </c>
       <c r="B100" t="n">
-        <v>3.791723143496709</v>
+        <v>4.210743111382545</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7447254878183489</v>
+        <v>0.6837039305001559</v>
       </c>
       <c r="B101" t="n">
-        <v>3.788048821414305</v>
+        <v>4.211022368572544</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7562585435302305</v>
+        <v>0.6856886228287261</v>
       </c>
       <c r="B102" t="n">
-        <v>3.784403857872683</v>
+        <v>4.211302610049246</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.767791599242112</v>
+        <v>0.6876733151572963</v>
       </c>
       <c r="B103" t="n">
-        <v>3.780787828266975</v>
+        <v>4.21158358547659</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7793246549539936</v>
+        <v>0.6910663564762007</v>
       </c>
       <c r="B104" t="n">
-        <v>3.777200226711187</v>
+        <v>4.212065284751084</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.7949794592237116</v>
+        <v>0.6944593977951051</v>
       </c>
       <c r="B105" t="n">
-        <v>3.772375105318479</v>
+        <v>4.212548366700494</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.8106342634934296</v>
+        <v>0.6978524391140095</v>
       </c>
       <c r="B106" t="n">
-        <v>3.767600330531986</v>
+        <v>4.213032873212875</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.8262890677631476</v>
+        <v>0.7012454804329139</v>
       </c>
       <c r="B107" t="n">
-        <v>3.762874788032899</v>
+        <v>4.213518880406003</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.8419438720328656</v>
+        <v>0.7046385217518183</v>
       </c>
       <c r="B108" t="n">
-        <v>3.758197410736835</v>
+        <v>4.21400634460397</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.8575986763025836</v>
+        <v>0.7121419261605427</v>
       </c>
       <c r="B109" t="n">
-        <v>3.753567165032483</v>
+        <v>4.215089333269841</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.9005948269005073</v>
+        <v>0.7196453305692672</v>
       </c>
       <c r="B110" t="n">
-        <v>3.741084568997466</v>
+        <v>4.216179223828907</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.943590977498431</v>
+        <v>0.7271487349779916</v>
       </c>
       <c r="B111" t="n">
-        <v>3.728930507352</v>
+        <v>4.217276113398598</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.9865871280963547</v>
+        <v>0.734652139386716</v>
       </c>
       <c r="B112" t="n">
-        <v>3.717087008924929</v>
+        <v>4.218380039243929</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.029583278694278</v>
+        <v>0.7479680296789094</v>
       </c>
       <c r="B113" t="n">
-        <v>3.705537499509883</v>
+        <v>4.220356338343216</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.072579429292202</v>
+        <v>0.7612839199711028</v>
       </c>
       <c r="B114" t="n">
-        <v>3.694266671582662</v>
+        <v>4.222354422189575</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.155331511804726</v>
+        <v>0.7745998102632962</v>
       </c>
       <c r="B115" t="n">
-        <v>3.673307313773903</v>
+        <v>4.224374353408402</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.238083594317249</v>
+        <v>0.7879157005554895</v>
       </c>
       <c r="B116" t="n">
-        <v>3.653237997417194</v>
+        <v>4.226416233326501</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.320835676829773</v>
+        <v>0.8022651289997964</v>
       </c>
       <c r="B117" t="n">
-        <v>3.633979888020244</v>
+        <v>4.228641505472605</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.403587759342297</v>
+        <v>0.8166145574441033</v>
       </c>
       <c r="B118" t="n">
-        <v>3.615463894382478</v>
+        <v>4.230893166010314</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.527516455135308</v>
+        <v>0.8309639858884101</v>
       </c>
       <c r="B119" t="n">
-        <v>3.588991971972045</v>
+        <v>4.233171733700399</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.651445150928319</v>
+        <v>0.845313414332717</v>
       </c>
       <c r="B120" t="n">
-        <v>3.563874193042775</v>
+        <v>4.235477928595508</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.77537384672133</v>
+        <v>0.8596628427770239</v>
       </c>
       <c r="B121" t="n">
-        <v>3.539963206473908</v>
+        <v>4.237812365870778</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.899302542514341</v>
+        <v>0.8906946165823905</v>
       </c>
       <c r="B122" t="n">
-        <v>3.517134393788822</v>
+        <v>4.242960710593414</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.023231238307352</v>
+        <v>0.9217263903877571</v>
       </c>
       <c r="B123" t="n">
-        <v>3.495281372154602</v>
+        <v>4.248251762979524</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.248407507221728</v>
+        <v>0.9527581641931236</v>
       </c>
       <c r="B124" t="n">
-        <v>3.457782106156412</v>
+        <v>4.253693016884446</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.473583776136105</v>
+        <v>0.9837899379984902</v>
       </c>
       <c r="B125" t="n">
-        <v>3.422756320539167</v>
+        <v>4.259292049686492</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.698760045050482</v>
+        <v>1.070340118412969</v>
       </c>
       <c r="B126" t="n">
-        <v>3.389847517241336</v>
+        <v>4.275799842132103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.923936313964859</v>
+        <v>1.156890298827447</v>
       </c>
       <c r="B127" t="n">
-        <v>3.35877053906438</v>
+        <v>4.293707504370348</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.149112582879236</v>
+        <v>1.158242645396423</v>
       </c>
       <c r="B128" t="n">
-        <v>3.329293434708996</v>
+        <v>4.293998819371851</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3.788485739525014</v>
+        <v>1.159594991965399</v>
       </c>
       <c r="B129" t="n">
-        <v>3.252755032787193</v>
+        <v>4.294290590058807</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.427858896170791</v>
+        <v>1.160947338534376</v>
       </c>
       <c r="B130" t="n">
-        <v>3.184479806509237</v>
+        <v>4.294582669683081</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5.06723205281657</v>
+        <v>1.162299685103352</v>
       </c>
       <c r="B131" t="n">
-        <v>3.122374843841348</v>
+        <v>4.294875084363061</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5.706605209462348</v>
+        <v>1.173199351929194</v>
       </c>
       <c r="B132" t="n">
-        <v>3.064998122676267</v>
+        <v>4.297243703135657</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6.7632575009716</v>
+        <v>1.184099018755036</v>
       </c>
       <c r="B133" t="n">
-        <v>2.97785645897035</v>
+        <v>4.299632834830034</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>7.819909792480853</v>
+        <v>1.194998685580879</v>
       </c>
       <c r="B134" t="n">
-        <v>2.89745217211343</v>
+        <v>4.302041179929792</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8.876562083990105</v>
+        <v>1.222949326870357</v>
       </c>
       <c r="B135" t="n">
-        <v>2.821334964446371</v>
+        <v>4.308288890445739</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.933214375499357</v>
+        <v>1.229936987192726</v>
       </c>
       <c r="B136" t="n">
-        <v>2.747498192460503</v>
+        <v>4.309862714551155</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>11.65857043000343</v>
+        <v>1.236924647515096</v>
       </c>
       <c r="B137" t="n">
-        <v>2.626808547776015</v>
+        <v>4.311439799027788</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.3839264845075</v>
+        <v>1.243912307837465</v>
       </c>
       <c r="B138" t="n">
-        <v>2.496665834193062</v>
+        <v>4.313018025392949</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>15.10928253901157</v>
+        <v>1.250899968159835</v>
       </c>
       <c r="B139" t="n">
-        <v>2.337802987489666</v>
+        <v>4.314591754763943</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>16.20537786574663</v>
+        <v>1.255759007207247</v>
       </c>
       <c r="B140" t="n">
-        <v>2.200688169951634</v>
+        <v>4.315688278574399</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>16.34238978158852</v>
+        <v>1.259282025748302</v>
       </c>
       <c r="B141" t="n">
-        <v>2.179884917856818</v>
+        <v>4.316484210056774</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>16.4794016974304</v>
+        <v>1.262805044289356</v>
       </c>
       <c r="B142" t="n">
-        <v>2.157904663311297</v>
+        <v>4.317282233037732</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>16.61641361327228</v>
+        <v>1.266328062830411</v>
       </c>
       <c r="B143" t="n">
-        <v>2.134611427702236</v>
+        <v>4.318081586931488</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>16.75342552911416</v>
+        <v>1.269851081371465</v>
       </c>
       <c r="B144" t="n">
-        <v>2.109822874512692</v>
+        <v>4.318882840151962</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>16.7851810165672</v>
+        <v>1.274908281810863</v>
       </c>
       <c r="B145" t="n">
-        <v>2.103843323283891</v>
+        <v>4.320041491521742</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>16.81693650402024</v>
+        <v>1.279965482250261</v>
       </c>
       <c r="B146" t="n">
-        <v>2.097767355739011</v>
+        <v>4.321201818496409</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>16.84869199147328</v>
+        <v>1.285022682689659</v>
       </c>
       <c r="B147" t="n">
-        <v>2.091592930963594</v>
+        <v>4.322370235423314</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>16.88044747892632</v>
+        <v>1.290079883129057</v>
       </c>
       <c r="B148" t="n">
-        <v>2.085316533216149</v>
+        <v>4.323542332491271</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>16.95616425443977</v>
+        <v>1.291344183238907</v>
       </c>
       <c r="B149" t="n">
-        <v>2.069913859423387</v>
+        <v>4.323836163146496</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>16.96562885137894</v>
+        <v>1.292608483348756</v>
       </c>
       <c r="B150" t="n">
-        <v>2.067942795481111</v>
+        <v>4.324130351869639</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>16.97509344831812</v>
+        <v>1.293872783458606</v>
       </c>
       <c r="B151" t="n">
-        <v>2.065960924379453</v>
+        <v>4.324424846319222</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>16.9845580452573</v>
+        <v>1.295137083568455</v>
       </c>
       <c r="B152" t="n">
-        <v>2.063967496865137</v>
+        <v>4.32471974266329</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>16.99402264219648</v>
+        <v>1.296401383678305</v>
       </c>
       <c r="B153" t="n">
-        <v>2.061961475415949</v>
+        <v>4.325015012042281</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17.00388396168004</v>
+        <v>1.301528720053226</v>
       </c>
       <c r="B154" t="n">
-        <v>2.059854214549346</v>
+        <v>4.326215766729898</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>17.00460456463248</v>
+        <v>1.306656056428146</v>
       </c>
       <c r="B155" t="n">
-        <v>2.059699409197414</v>
+        <v>4.327421946424999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>17.00532516758492</v>
+        <v>1.311783392803067</v>
       </c>
       <c r="B156" t="n">
-        <v>2.059544431719083</v>
+        <v>4.328633776659031</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>17.00604577053736</v>
+        <v>1.316910729177988</v>
       </c>
       <c r="B157" t="n">
-        <v>2.059389270464823</v>
+        <v>4.329851162991539</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>17.0067663734898</v>
+        <v>1.348149227655464</v>
       </c>
       <c r="B158" t="n">
-        <v>2.059233902510313</v>
+        <v>4.337391981916153</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>17.01016932082531</v>
+        <v>1.379387726132941</v>
       </c>
       <c r="B159" t="n">
-        <v>2.058495595810481</v>
+        <v>4.345154760024814</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>17.01059468924225</v>
+        <v>1.410626224610417</v>
       </c>
       <c r="B160" t="n">
-        <v>2.05840278387598</v>
+        <v>4.353152665241357</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>17.01102005765918</v>
+        <v>1.504143477344575</v>
       </c>
       <c r="B161" t="n">
-        <v>2.058309753184174</v>
+        <v>4.37864738869119</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>17.01144542607612</v>
+        <v>1.597660730078733</v>
       </c>
       <c r="B162" t="n">
-        <v>2.058216477131437</v>
+        <v>4.406844596595502</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>17.01278508602043</v>
+        <v>1.662886496225017</v>
       </c>
       <c r="B163" t="n">
-        <v>2.057920688485502</v>
+        <v>4.428396658573944</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>17.01412474596474</v>
+        <v>1.704240967807483</v>
       </c>
       <c r="B164" t="n">
-        <v>2.057620873972296</v>
+        <v>4.442955354022725</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>17.01546440590904</v>
+        <v>1.745595439389949</v>
       </c>
       <c r="B165" t="n">
-        <v>2.057315590858144</v>
+        <v>4.458243461590381</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>17.01680406585335</v>
+        <v>1.786949910972416</v>
       </c>
       <c r="B166" t="n">
-        <v>2.057003044142395</v>
+        <v>4.474280788855761</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>17.01866970990442</v>
+        <v>1.845864507603916</v>
       </c>
       <c r="B167" t="n">
-        <v>2.056551728065275</v>
+        <v>4.498468448996432</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>17.01985705418928</v>
+        <v>1.863372978800934</v>
       </c>
       <c r="B168" t="n">
-        <v>2.056253598517526</v>
+        <v>4.505963729734942</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>17.02104439847415</v>
+        <v>1.880881449997951</v>
       </c>
       <c r="B169" t="n">
-        <v>2.055948274092259</v>
+        <v>4.513620388482884</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>17.02223174275901</v>
+        <v>1.898389921194969</v>
       </c>
       <c r="B170" t="n">
-        <v>2.055638151912043</v>
+        <v>4.521450417236513</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>17.02341908704388</v>
+        <v>1.915898392391987</v>
       </c>
       <c r="B171" t="n">
-        <v>2.055325536120451</v>
+        <v>4.52946287926676</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>17.02482371860726</v>
+        <v>1.950404201024156</v>
       </c>
       <c r="B172" t="n">
-        <v>2.054953983394995</v>
+        <v>4.545817626905234</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>17.02622835017064</v>
+        <v>1.984910009656326</v>
       </c>
       <c r="B173" t="n">
-        <v>2.054581455301201</v>
+        <v>4.562968703220149</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>17.02763298173402</v>
+        <v>2.019415818288495</v>
       </c>
       <c r="B174" t="n">
-        <v>2.054208088797179</v>
+        <v>4.58093954761731</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>17.02903761329739</v>
+        <v>2.044722390472149</v>
       </c>
       <c r="B175" t="n">
-        <v>2.053833940786548</v>
+        <v>4.594652935800077</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>17.03212292485508</v>
+        <v>2.070028962655804</v>
       </c>
       <c r="B176" t="n">
-        <v>2.053009667663905</v>
+        <v>4.608812598030864</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.03520823641277</v>
+        <v>2.095335534839458</v>
       </c>
       <c r="B177" t="n">
-        <v>2.052182217443078</v>
+        <v>4.623424675773276</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>17.03829354797045</v>
+        <v>2.120642107023112</v>
       </c>
       <c r="B178" t="n">
-        <v>2.051351654773915</v>
+        <v>4.638494462607862</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.0429289482265</v>
+        <v>2.151873295191001</v>
       </c>
       <c r="B179" t="n">
-        <v>2.05009794988745</v>
+        <v>4.657732277593783</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.04756434848255</v>
+        <v>2.183104483358889</v>
       </c>
       <c r="B180" t="n">
-        <v>2.048837206678015</v>
+        <v>4.677688610398899</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17.05219974873859</v>
+        <v>2.214335671526777</v>
       </c>
       <c r="B181" t="n">
-        <v>2.047569348919439</v>
+        <v>4.698376475731645</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>17.05683514899464</v>
+        <v>2.245566859694666</v>
       </c>
       <c r="B182" t="n">
-        <v>2.046294301180592</v>
+        <v>4.719810188245557</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>17.07357346245842</v>
+        <v>2.276798047862554</v>
       </c>
       <c r="B183" t="n">
-        <v>2.041629079016731</v>
+        <v>4.742002676437763</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>17.0903117759222</v>
+        <v>2.310234787671657</v>
       </c>
       <c r="B184" t="n">
-        <v>2.036865633961574</v>
+        <v>4.766615944573397</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.10705008938598</v>
+        <v>2.34367152748076</v>
       </c>
       <c r="B185" t="n">
-        <v>2.032000340569537</v>
+        <v>4.792121819240061</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.16324311130715</v>
+        <v>2.377108267289863</v>
       </c>
       <c r="B186" t="n">
-        <v>2.014650050715887</v>
+        <v>4.818525223208426</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>17.21943613322832</v>
+        <v>2.410545007098966</v>
       </c>
       <c r="B187" t="n">
-        <v>1.99589869638491</v>
+        <v>4.845824662740002</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>17.3475549607178</v>
+        <v>2.443981746908069</v>
       </c>
       <c r="B188" t="n">
-        <v>1.947092919628872</v>
+        <v>4.874010967189524</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>17.47567378820727</v>
+        <v>2.49621723841166</v>
       </c>
       <c r="B189" t="n">
-        <v>1.887374921342157</v>
+        <v>4.919771649859061</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>17.60379261569674</v>
+        <v>2.548452729915251</v>
       </c>
       <c r="B190" t="n">
-        <v>1.813028971433789</v>
+        <v>4.967525386483691</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>17.69316692678956</v>
+        <v>2.600688221418842</v>
       </c>
       <c r="B191" t="n">
-        <v>1.750311878820475</v>
+        <v>5.017078381795551</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>17.75510854692588</v>
+        <v>2.652923712922433</v>
       </c>
       <c r="B192" t="n">
-        <v>1.701307313156321</v>
+        <v>5.068162993362498</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>17.8170501670622</v>
+        <v>2.757676756184819</v>
       </c>
       <c r="B193" t="n">
-        <v>1.648278418286103</v>
+        <v>5.173818434640998</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>17.86109068498577</v>
+        <v>2.862429799447204</v>
       </c>
       <c r="B194" t="n">
-        <v>1.608332786687347</v>
+        <v>5.281029303368591</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>17.90513120290935</v>
+        <v>2.967182842709589</v>
       </c>
       <c r="B195" t="n">
-        <v>1.566310397047352</v>
+        <v>5.386652588636358</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>17.94917172083293</v>
+        <v>3.179329417247311</v>
       </c>
       <c r="B196" t="n">
-        <v>1.521604746025899</v>
+        <v>5.587495260355623</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>17.9932122387565</v>
+        <v>3.391475991785033</v>
       </c>
       <c r="B197" t="n">
-        <v>1.473387028531401</v>
+        <v>5.76777564585735</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>18.03756298022466</v>
+        <v>3.603622566322755</v>
       </c>
       <c r="B198" t="n">
-        <v>1.420169772659395</v>
+        <v>5.931200697228863</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>18.08191372169281</v>
+        <v>3.918501146280407</v>
       </c>
       <c r="B199" t="n">
-        <v>1.360793298944147</v>
+        <v>6.151887349566319</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>18.12626446316096</v>
+        <v>3.984113603660595</v>
       </c>
       <c r="B200" t="n">
-        <v>1.293266351904035</v>
+        <v>6.195560817356288</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>18.17061520462912</v>
+        <v>4.049726061040783</v>
       </c>
       <c r="B201" t="n">
-        <v>1.214785302069148</v>
+        <v>6.237938873899675</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>18.21138275776204</v>
+        <v>4.115338518420971</v>
       </c>
       <c r="B202" t="n">
-        <v>1.129498063542795</v>
+        <v>6.278655152598144</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>18.25215031089496</v>
+        <v>4.180950975801158</v>
       </c>
       <c r="B203" t="n">
-        <v>1.026935277660689</v>
+        <v>6.31721949144737</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>18.29291786402788</v>
+        <v>4.295556316343803</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9009428843628496</v>
+        <v>6.377730015466602</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>18.3336854171608</v>
+        <v>4.368587820363325</v>
       </c>
       <c r="B205" t="n">
-        <v>0.7458360892966034</v>
+        <v>6.410750282628649</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>18.37445297029372</v>
+        <v>4.420520769511886</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5655494506716874</v>
+        <v>6.431427643686584</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>18.42898759916691</v>
+        <v>4.472453718660447</v>
       </c>
       <c r="B207" t="n">
-        <v>0.3270563733456439</v>
+        <v>6.449947171069138</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>18.48352222804009</v>
+        <v>4.524386667809009</v>
       </c>
       <c r="B208" t="n">
-        <v>0.135584122940731</v>
+        <v>6.466467305228417</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>18.53805685691328</v>
-      </c>
-      <c r="B209" t="inlineStr"/>
+        <v>4.57631961695757</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6.481104478073215</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>18.59259148578647</v>
-      </c>
-      <c r="B210" t="inlineStr"/>
+        <v>4.631351478918263</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6.494584690395558</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>18.64712611465966</v>
-      </c>
-      <c r="B211" t="inlineStr"/>
+        <v>4.686383340878955</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6.505980422014507</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>18.73494038609098</v>
-      </c>
-      <c r="B212" t="inlineStr"/>
+        <v>4.741415202839648</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6.515276279415377</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>18.82275465752231</v>
-      </c>
-      <c r="B213" t="inlineStr"/>
+        <v>4.796447064800341</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6.522495474116971</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>18.91056892895363</v>
-      </c>
-      <c r="B214" t="inlineStr"/>
+        <v>4.86376950604263</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6.528632138410472</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>18.99838320038495</v>
-      </c>
-      <c r="B215" t="inlineStr"/>
+        <v>4.931091947284918</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6.532117686255559</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>19.1417414009818</v>
-      </c>
-      <c r="B216" t="inlineStr"/>
+        <v>4.998414388527207</v>
+      </c>
+      <c r="B216" t="n">
+        <v>6.533394164117811</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19.28509960157865</v>
-      </c>
-      <c r="B217" t="inlineStr"/>
+        <v>5.065736829769496</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6.53295382660572</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>19.42845780217549</v>
-      </c>
-      <c r="B218" t="inlineStr"/>
+        <v>5.133059271011785</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6.531233890170721</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>19.70188651865712</v>
-      </c>
-      <c r="B219" t="inlineStr"/>
+        <v>5.245586586188804</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6.526347629062319</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>19.97531523513874</v>
-      </c>
-      <c r="B220" t="inlineStr"/>
+        <v>5.358113901365822</v>
+      </c>
+      <c r="B220" t="n">
+        <v>6.519923638799069</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
+        <v>5.470641216542841</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6.512642928762618</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>5.58316853171986</v>
+      </c>
+      <c r="B222" t="n">
+        <v>6.50482163569133</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>5.707286363825759</v>
+      </c>
+      <c r="B223" t="n">
+        <v>6.495759415561581</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>5.831404195931658</v>
+      </c>
+      <c r="B224" t="n">
+        <v>6.4863475411943</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>5.955522028037556</v>
+      </c>
+      <c r="B225" t="n">
+        <v>6.476681787754756</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>6.079639860143455</v>
+      </c>
+      <c r="B226" t="n">
+        <v>6.466829031555576</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>6.203757692249354</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6.456830146577238</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>6.509282988286836</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6.431781440232406</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>6.814808284324318</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6.406317282762233</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>7.1203335803618</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6.380667670695811</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>7.425858876399282</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6.355032043402061</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>7.731384172436764</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6.329532783451012</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>8.266813061004591</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6.285314783769304</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>8.802241949572418</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6.241877083127564</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>9.337670838140244</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6.199281908291238</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>9.873099726708071</v>
+      </c>
+      <c r="B236" t="n">
+        <v>6.157497120226013</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>11.36928025135029</v>
+      </c>
+      <c r="B237" t="n">
+        <v>6.044205605768568</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>12.86546077599251</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5.933883770046791</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>14.36164130063473</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5.823764230488313</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>17.14741698816541</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5.608337161794887</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>19.93319267569609</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5.352928956960828</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
         <v>20</v>
       </c>
-      <c r="B221" t="inlineStr"/>
+      <c r="B242" t="n">
+        <v>5.345874870718451</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
